--- a/test/testdata/simple.xlsx
+++ b/test/testdata/simple.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1040" yWindow="1680" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="-32900" yWindow="2740" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -46,6 +46,14 @@
   </si>
   <si>
     <t>Hello|World</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dog|Cat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -369,15 +377,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -388,7 +396,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -397,6 +405,33 @@
       </c>
       <c r="C2" t="s">
         <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata/simple.xlsx
+++ b/test/testdata/simple.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-32900" yWindow="2740" windowWidth="27760" windowHeight="16380" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="simple" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -45,15 +45,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hello|World</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Dog|Cat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bar</t>
+    <t>10-1|22-2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hello</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Temp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Foo":"Bar"}</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -61,7 +69,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="16"/>
       <color theme="1"/>
@@ -76,6 +84,11 @@
       <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FFE6DB74"/>
+      <name val="Source Code Pro"/>
     </font>
   </fonts>
   <fills count="2">
@@ -98,8 +111,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -377,26 +391,35 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
-        <v>2</v>
+      <c r="D1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -404,34 +427,61 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
       <c r="D3" t="s">
         <v>5</v>
       </c>
+      <c r="E3" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata/simple.xlsx
+++ b/test/testdata/simple.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="simple" sheetId="1" r:id="rId1"/>
+    <sheet name="extension.suffix" sheetId="1" r:id="rId1"/>
+    <sheet name="standard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -27,41 +28,57 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Slice</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Foo</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Dog|Cat</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10-1|22-2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Hello</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Temp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>{"Foo":"Bar"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameOf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Age</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnmarshalString</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>leave an empty row to show the feature of "auto skip empty row" and "skip column without title".</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0|1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Andy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Leo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ben</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ming</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -111,9 +128,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -391,101 +409,112 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E5"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>6</v>
-      </c>
       <c r="E1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>95</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>55</v>
+      </c>
+      <c r="D3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>50</v>
+      </c>
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>233</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>50</v>
-      </c>
-      <c r="C4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>3</v>
-      </c>
-      <c r="B5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" t="s">
-        <v>8</v>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/test/testdata/simple.xlsx
+++ b/test/testdata/simple.xlsx
@@ -9,11 +9,11 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
+    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="extension.suffix" sheetId="1" r:id="rId1"/>
-    <sheet name="standard" sheetId="2" r:id="rId2"/>
+    <sheet name="Extension.suffix" sheetId="1" r:id="rId1"/>
+    <sheet name="Standard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,46 @@
   </si>
   <si>
     <t>Ming</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Row To Skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SomeRemark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1|2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2|3|4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3|4|5|6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Foo":"Andy"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Foo":"Leo"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Foo":"Ben"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>{"Foo":"Ming"}</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AgeOf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -409,92 +449,113 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="21.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="1" max="4" width="12.375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2">
-        <v>95</v>
-      </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2" t="s">
-        <v>2</v>
-      </c>
-    </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>14</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3">
-        <v>55</v>
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>7</v>
+        <v>14</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C5">
-        <v>233</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" t="s">
-        <v>6</v>
+        <v>95</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>55</v>
+      </c>
+      <c r="D6" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>50</v>
+      </c>
+      <c r="B8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8">
+        <v>233</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>3</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="C6">
+      <c r="C9">
         <v>65</v>
       </c>
     </row>
@@ -506,14 +567,103 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="5" max="5" width="15.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="24" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test/testdata/simple.xlsx
+++ b/test/testdata/simple.xlsx
@@ -9,10 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="-38300" yWindow="440" windowWidth="38400" windowHeight="21080" tabRatio="500"/>
   </bookViews>
   <sheets>
-    <sheet name="Extension.suffix" sheetId="1" r:id="rId1"/>
+    <sheet name="Advance.suffix" sheetId="1" r:id="rId1"/>
     <sheet name="Standard" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="150000" concurrentCalc="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -38,18 +38,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>{"Foo":"Bar"}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NameOf</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Age</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>UnmarshalString</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -58,14 +50,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0|1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>0|1|2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Andy</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -86,10 +70,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SomeRemark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1|2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,6 +99,25 @@
   </si>
   <si>
     <t>AgeOf</t>
+  </si>
+  <si>
+    <t>AgeOf</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>stringSTR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row to skip</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>some remark</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,10 +167,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -451,8 +449,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F9"/>
   <sheetViews>
-    <sheetView zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -463,7 +461,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="24" x14ac:dyDescent="0.3">
@@ -471,33 +469,30 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
         <v>3</v>
-      </c>
-      <c r="C2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
@@ -505,16 +500,16 @@
         <v>1</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C5">
-        <v>95</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -522,41 +517,47 @@
         <v>2</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C6">
-        <v>55</v>
+        <v>2</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
-        <v>233</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
       </c>
       <c r="F8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9">
-        <v>65</v>
+        <v>4</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -569,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" zoomScalePageLayoutView="210" workbookViewId="0">
+      <selection activeCell="E5" sqref="A1:E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -583,16 +584,16 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -600,16 +601,16 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
@@ -617,16 +618,16 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -634,16 +635,16 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -651,7 +652,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
@@ -660,7 +661,7 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/test/testdata/simple.xlsx
+++ b/test/testdata/simple.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +118,10 @@
   </si>
   <si>
     <t>some remark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>row 4 is empty row so don't need to set skip.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -450,7 +454,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="183" zoomScaleNormal="183" zoomScalePageLayoutView="183" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="21" x14ac:dyDescent="0.25"/>
@@ -510,6 +514,9 @@
       </c>
       <c r="E5" t="s">
         <v>13</v>
+      </c>
+      <c r="F5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
